--- a/storage/documents/LeaseWeb_servers_filters_assignment.xlsx
+++ b/storage/documents/LeaseWeb_servers_filters_assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AssignDev\storage\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439B26B7-0142-4581-89BE-BE80F8C20DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05497883-5F0B-4F3D-A094-131DA69CF6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1199,9 +1199,6 @@
     <t>Refer to Location list</t>
   </si>
   <si>
-    <t>Refined RAM</t>
-  </si>
-  <si>
     <t>HDD capacity</t>
   </si>
   <si>
@@ -1245,6 +1242,9 @@
   </si>
   <si>
     <t>HDD capacity(GB)</t>
+  </si>
+  <si>
+    <t>RAM(GB)</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:I487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,16 +1657,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1690,10 +1690,10 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I2">
         <f>LEFT(H2,LEN(H2)-2)/10^((MATCH(RIGHT(H2,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -1721,10 +1721,10 @@
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I3">
         <f>LEFT(H3,LEN(H3)-2)/10^((MATCH(RIGHT(H3,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -1752,10 +1752,10 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I4">
         <f>LEFT(H4,LEN(H4)-2)/10^((MATCH(RIGHT(H4,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -1783,10 +1783,10 @@
         <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I5">
         <f>LEFT(H5,LEN(H5)-2)/10^((MATCH(RIGHT(H5,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -1814,10 +1814,10 @@
         <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I6">
         <f>LEFT(H6,LEN(H6)-2)/10^((MATCH(RIGHT(H6,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -1845,10 +1845,10 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I7">
         <f>LEFT(H7,LEN(H7)-2)/10^((MATCH(RIGHT(H7,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -1876,10 +1876,10 @@
         <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I8">
         <f>LEFT(H8,LEN(H8)-2)/10^((MATCH(RIGHT(H8,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -1907,10 +1907,10 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I9">
         <f>LEFT(H9,LEN(H9)-2)/10^((MATCH(RIGHT(H9,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -1938,10 +1938,10 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I10">
         <f>LEFT(H10,LEN(H10)-2)/10^((MATCH(RIGHT(H10,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -1969,10 +1969,10 @@
         <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I11">
         <f>LEFT(H11,LEN(H11)-2)/10^((MATCH(RIGHT(H11,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2000,10 +2000,10 @@
         <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I12">
         <f>LEFT(H12,LEN(H12)-2)/10^((MATCH(RIGHT(H12,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2031,10 +2031,10 @@
         <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I13">
         <f>LEFT(H13,LEN(H13)-2)/10^((MATCH(RIGHT(H13,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2062,10 +2062,10 @@
         <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I14">
         <f>LEFT(H14,LEN(H14)-2)/10^((MATCH(RIGHT(H14,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2093,10 +2093,10 @@
         <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I15">
         <f>LEFT(H15,LEN(H15)-2)/10^((MATCH(RIGHT(H15,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2124,10 +2124,10 @@
         <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I16">
         <f>LEFT(H16,LEN(H16)-2)/10^((MATCH(RIGHT(H16,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2155,10 +2155,10 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I17">
         <f>LEFT(H17,LEN(H17)-2)/10^((MATCH(RIGHT(H17,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2186,10 +2186,10 @@
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I18">
         <f>LEFT(H18,LEN(H18)-2)/10^((MATCH(RIGHT(H18,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2217,10 +2217,10 @@
         <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I19">
         <f>LEFT(H19,LEN(H19)-2)/10^((MATCH(RIGHT(H19,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2248,10 +2248,10 @@
         <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I20">
         <f>LEFT(H20,LEN(H20)-2)/10^((MATCH(RIGHT(H20,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2279,10 +2279,10 @@
         <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I21">
         <f>LEFT(H21,LEN(H21)-2)/10^((MATCH(RIGHT(H21,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2310,10 +2310,10 @@
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I22">
         <f>LEFT(H22,LEN(H22)-2)/10^((MATCH(RIGHT(H22,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2341,10 +2341,10 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I23">
         <f>LEFT(H23,LEN(H23)-2)/10^((MATCH(RIGHT(H23,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2372,10 +2372,10 @@
         <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I24">
         <f>LEFT(H24,LEN(H24)-2)/10^((MATCH(RIGHT(H24,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2403,10 +2403,10 @@
         <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I25">
         <f>LEFT(H25,LEN(H25)-2)/10^((MATCH(RIGHT(H25,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2434,10 +2434,10 @@
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I26">
         <f>LEFT(H26,LEN(H26)-2)/10^((MATCH(RIGHT(H26,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2465,10 +2465,10 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I27">
         <f>LEFT(H27,LEN(H27)-2)/10^((MATCH(RIGHT(H27,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2496,10 +2496,10 @@
         <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I28">
         <f>LEFT(H28,LEN(H28)-2)/10^((MATCH(RIGHT(H28,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2527,10 +2527,10 @@
         <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I29">
         <f>LEFT(H29,LEN(H29)-2)/10^((MATCH(RIGHT(H29,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2558,10 +2558,10 @@
         <v>64</v>
       </c>
       <c r="G30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I30">
         <f>LEFT(H30,LEN(H30)-2)/10^((MATCH(RIGHT(H30,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2589,10 +2589,10 @@
         <v>128</v>
       </c>
       <c r="G31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I31">
         <f>LEFT(H31,LEN(H31)-2)/10^((MATCH(RIGHT(H31,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2620,10 +2620,10 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I32">
         <f>LEFT(H32,LEN(H32)-2)/10^((MATCH(RIGHT(H32,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2651,10 +2651,10 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I33">
         <f>LEFT(H33,LEN(H33)-2)/10^((MATCH(RIGHT(H33,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2682,10 +2682,10 @@
         <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I34">
         <f>LEFT(H34,LEN(H34)-2)/10^((MATCH(RIGHT(H34,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2713,10 +2713,10 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I35">
         <f>LEFT(H35,LEN(H35)-2)/10^((MATCH(RIGHT(H35,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2744,10 +2744,10 @@
         <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I36">
         <f>LEFT(H36,LEN(H36)-2)/10^((MATCH(RIGHT(H36,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2775,10 +2775,10 @@
         <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I37">
         <f>LEFT(H37,LEN(H37)-2)/10^((MATCH(RIGHT(H37,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2806,10 +2806,10 @@
         <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I38">
         <f>LEFT(H38,LEN(H38)-2)/10^((MATCH(RIGHT(H38,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2837,10 +2837,10 @@
         <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I39">
         <f>LEFT(H39,LEN(H39)-2)/10^((MATCH(RIGHT(H39,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2868,10 +2868,10 @@
         <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I40">
         <f>LEFT(H40,LEN(H40)-2)/10^((MATCH(RIGHT(H40,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2899,10 +2899,10 @@
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I41">
         <f>LEFT(H41,LEN(H41)-2)/10^((MATCH(RIGHT(H41,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2930,10 +2930,10 @@
         <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I42">
         <f>LEFT(H42,LEN(H42)-2)/10^((MATCH(RIGHT(H42,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2961,10 +2961,10 @@
         <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I43">
         <f>LEFT(H43,LEN(H43)-2)/10^((MATCH(RIGHT(H43,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -2992,10 +2992,10 @@
         <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I44">
         <f>LEFT(H44,LEN(H44)-2)/10^((MATCH(RIGHT(H44,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3023,10 +3023,10 @@
         <v>64</v>
       </c>
       <c r="G45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I45">
         <f>LEFT(H45,LEN(H45)-2)/10^((MATCH(RIGHT(H45,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3054,10 +3054,10 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I46">
         <f>LEFT(H46,LEN(H46)-2)/10^((MATCH(RIGHT(H46,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3085,10 +3085,10 @@
         <v>128</v>
       </c>
       <c r="G47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I47">
         <f>LEFT(H47,LEN(H47)-2)/10^((MATCH(RIGHT(H47,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3116,10 +3116,10 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I48">
         <f>LEFT(H48,LEN(H48)-2)/10^((MATCH(RIGHT(H48,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3147,10 +3147,10 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I49">
         <f>LEFT(H49,LEN(H49)-2)/10^((MATCH(RIGHT(H49,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3178,10 +3178,10 @@
         <v>128</v>
       </c>
       <c r="G50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I50">
         <f>LEFT(H50,LEN(H50)-2)/10^((MATCH(RIGHT(H50,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3209,10 +3209,10 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I51">
         <f>LEFT(H51,LEN(H51)-2)/10^((MATCH(RIGHT(H51,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3240,10 +3240,10 @@
         <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I52">
         <f>LEFT(H52,LEN(H52)-2)/10^((MATCH(RIGHT(H52,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3271,10 +3271,10 @@
         <v>64</v>
       </c>
       <c r="G53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I53">
         <f>LEFT(H53,LEN(H53)-2)/10^((MATCH(RIGHT(H53,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3302,10 +3302,10 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I54">
         <f>LEFT(H54,LEN(H54)-2)/10^((MATCH(RIGHT(H54,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3333,10 +3333,10 @@
         <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I55">
         <f>LEFT(H55,LEN(H55)-2)/10^((MATCH(RIGHT(H55,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3364,10 +3364,10 @@
         <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I56">
         <f>LEFT(H56,LEN(H56)-2)/10^((MATCH(RIGHT(H56,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3395,10 +3395,10 @@
         <v>64</v>
       </c>
       <c r="G57" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I57">
         <f>LEFT(H57,LEN(H57)-2)/10^((MATCH(RIGHT(H57,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3426,10 +3426,10 @@
         <v>64</v>
       </c>
       <c r="G58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I58">
         <f>LEFT(H58,LEN(H58)-2)/10^((MATCH(RIGHT(H58,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3457,10 +3457,10 @@
         <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H59" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I59">
         <f>LEFT(H59,LEN(H59)-2)/10^((MATCH(RIGHT(H59,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3488,10 +3488,10 @@
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I60">
         <f>LEFT(H60,LEN(H60)-2)/10^((MATCH(RIGHT(H60,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3519,10 +3519,10 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I61">
         <f>LEFT(H61,LEN(H61)-2)/10^((MATCH(RIGHT(H61,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3550,10 +3550,10 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H62" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I62">
         <f>LEFT(H62,LEN(H62)-2)/10^((MATCH(RIGHT(H62,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3581,10 +3581,10 @@
         <v>64</v>
       </c>
       <c r="G63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I63">
         <f>LEFT(H63,LEN(H63)-2)/10^((MATCH(RIGHT(H63,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3612,10 +3612,10 @@
         <v>128</v>
       </c>
       <c r="G64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I64">
         <f>LEFT(H64,LEN(H64)-2)/10^((MATCH(RIGHT(H64,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3643,10 +3643,10 @@
         <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I65">
         <f>LEFT(H65,LEN(H65)-2)/10^((MATCH(RIGHT(H65,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3674,10 +3674,10 @@
         <v>64</v>
       </c>
       <c r="G66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I66">
         <f>LEFT(H66,LEN(H66)-2)/10^((MATCH(RIGHT(H66,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3705,10 +3705,10 @@
         <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I67">
         <f>LEFT(H67,LEN(H67)-2)/10^((MATCH(RIGHT(H67,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3736,10 +3736,10 @@
         <v>128</v>
       </c>
       <c r="G68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I68">
         <f>LEFT(H68,LEN(H68)-2)/10^((MATCH(RIGHT(H68,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3767,10 +3767,10 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I69">
         <f>LEFT(H69,LEN(H69)-2)/10^((MATCH(RIGHT(H69,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3798,10 +3798,10 @@
         <v>128</v>
       </c>
       <c r="G70" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I70">
         <f>LEFT(H70,LEN(H70)-2)/10^((MATCH(RIGHT(H70,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3829,10 +3829,10 @@
         <v>64</v>
       </c>
       <c r="G71" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I71">
         <f>LEFT(H71,LEN(H71)-2)/10^((MATCH(RIGHT(H71,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3860,10 +3860,10 @@
         <v>64</v>
       </c>
       <c r="G72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I72">
         <f>LEFT(H72,LEN(H72)-2)/10^((MATCH(RIGHT(H72,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3891,10 +3891,10 @@
         <v>64</v>
       </c>
       <c r="G73" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I73">
         <f>LEFT(H73,LEN(H73)-2)/10^((MATCH(RIGHT(H73,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3922,10 +3922,10 @@
         <v>64</v>
       </c>
       <c r="G74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I74">
         <f>LEFT(H74,LEN(H74)-2)/10^((MATCH(RIGHT(H74,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3953,10 +3953,10 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H75" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I75">
         <f>LEFT(H75,LEN(H75)-2)/10^((MATCH(RIGHT(H75,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -3984,10 +3984,10 @@
         <v>16</v>
       </c>
       <c r="G76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I76">
         <f>LEFT(H76,LEN(H76)-2)/10^((MATCH(RIGHT(H76,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4015,10 +4015,10 @@
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I77">
         <f>LEFT(H77,LEN(H77)-2)/10^((MATCH(RIGHT(H77,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4046,10 +4046,10 @@
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H78" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I78">
         <f>LEFT(H78,LEN(H78)-2)/10^((MATCH(RIGHT(H78,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4077,10 +4077,10 @@
         <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I79">
         <f>LEFT(H79,LEN(H79)-2)/10^((MATCH(RIGHT(H79,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4108,10 +4108,10 @@
         <v>64</v>
       </c>
       <c r="G80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I80">
         <f>LEFT(H80,LEN(H80)-2)/10^((MATCH(RIGHT(H80,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4139,10 +4139,10 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H81" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I81">
         <f>LEFT(H81,LEN(H81)-2)/10^((MATCH(RIGHT(H81,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4170,10 +4170,10 @@
         <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H82" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I82">
         <f>LEFT(H82,LEN(H82)-2)/10^((MATCH(RIGHT(H82,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4201,10 +4201,10 @@
         <v>64</v>
       </c>
       <c r="G83" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I83">
         <f>LEFT(H83,LEN(H83)-2)/10^((MATCH(RIGHT(H83,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4232,10 +4232,10 @@
         <v>128</v>
       </c>
       <c r="G84" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H84" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I84">
         <f>LEFT(H84,LEN(H84)-2)/10^((MATCH(RIGHT(H84,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4263,10 +4263,10 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H85" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I85">
         <f>LEFT(H85,LEN(H85)-2)/10^((MATCH(RIGHT(H85,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4294,10 +4294,10 @@
         <v>64</v>
       </c>
       <c r="G86" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I86">
         <f>LEFT(H86,LEN(H86)-2)/10^((MATCH(RIGHT(H86,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4325,10 +4325,10 @@
         <v>64</v>
       </c>
       <c r="G87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I87">
         <f>LEFT(H87,LEN(H87)-2)/10^((MATCH(RIGHT(H87,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4356,10 +4356,10 @@
         <v>128</v>
       </c>
       <c r="G88" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H88" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I88">
         <f>LEFT(H88,LEN(H88)-2)/10^((MATCH(RIGHT(H88,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4387,10 +4387,10 @@
         <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H89" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I89">
         <f>LEFT(H89,LEN(H89)-2)/10^((MATCH(RIGHT(H89,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4418,10 +4418,10 @@
         <v>128</v>
       </c>
       <c r="G90" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I90">
         <f>LEFT(H90,LEN(H90)-2)/10^((MATCH(RIGHT(H90,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4449,10 +4449,10 @@
         <v>64</v>
       </c>
       <c r="G91" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I91">
         <f>LEFT(H91,LEN(H91)-2)/10^((MATCH(RIGHT(H91,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4480,10 +4480,10 @@
         <v>64</v>
       </c>
       <c r="G92" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I92">
         <f>LEFT(H92,LEN(H92)-2)/10^((MATCH(RIGHT(H92,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4511,10 +4511,10 @@
         <v>64</v>
       </c>
       <c r="G93" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H93" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I93">
         <f>LEFT(H93,LEN(H93)-2)/10^((MATCH(RIGHT(H93,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4542,10 +4542,10 @@
         <v>64</v>
       </c>
       <c r="G94" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H94" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I94">
         <f>LEFT(H94,LEN(H94)-2)/10^((MATCH(RIGHT(H94,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4573,10 +4573,10 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H95" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I95">
         <f>LEFT(H95,LEN(H95)-2)/10^((MATCH(RIGHT(H95,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4604,10 +4604,10 @@
         <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I96">
         <f>LEFT(H96,LEN(H96)-2)/10^((MATCH(RIGHT(H96,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4635,10 +4635,10 @@
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I97">
         <f>LEFT(H97,LEN(H97)-2)/10^((MATCH(RIGHT(H97,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4666,10 +4666,10 @@
         <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H98" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I98">
         <f>LEFT(H98,LEN(H98)-2)/10^((MATCH(RIGHT(H98,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4697,10 +4697,10 @@
         <v>64</v>
       </c>
       <c r="G99" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H99" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I99">
         <f>LEFT(H99,LEN(H99)-2)/10^((MATCH(RIGHT(H99,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4728,10 +4728,10 @@
         <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I100">
         <f>LEFT(H100,LEN(H100)-2)/10^((MATCH(RIGHT(H100,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4759,10 +4759,10 @@
         <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I101">
         <f>LEFT(H101,LEN(H101)-2)/10^((MATCH(RIGHT(H101,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4790,10 +4790,10 @@
         <v>8</v>
       </c>
       <c r="G102" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H102" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I102">
         <f>LEFT(H102,LEN(H102)-2)/10^((MATCH(RIGHT(H102,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4821,10 +4821,10 @@
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H103" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I103">
         <f>LEFT(H103,LEN(H103)-2)/10^((MATCH(RIGHT(H103,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4852,10 +4852,10 @@
         <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H104" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I104">
         <f>LEFT(H104,LEN(H104)-2)/10^((MATCH(RIGHT(H104,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4883,10 +4883,10 @@
         <v>4</v>
       </c>
       <c r="G105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H105" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I105">
         <f>LEFT(H105,LEN(H105)-2)/10^((MATCH(RIGHT(H105,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4914,10 +4914,10 @@
         <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H106" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I106">
         <f>LEFT(H106,LEN(H106)-2)/10^((MATCH(RIGHT(H106,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4945,10 +4945,10 @@
         <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H107" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I107">
         <f>LEFT(H107,LEN(H107)-2)/10^((MATCH(RIGHT(H107,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -4976,10 +4976,10 @@
         <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H108" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I108">
         <f>LEFT(H108,LEN(H108)-2)/10^((MATCH(RIGHT(H108,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5007,10 +5007,10 @@
         <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H109" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I109">
         <f>LEFT(H109,LEN(H109)-2)/10^((MATCH(RIGHT(H109,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5038,10 +5038,10 @@
         <v>128</v>
       </c>
       <c r="G110" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H110" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I110">
         <f>LEFT(H110,LEN(H110)-2)/10^((MATCH(RIGHT(H110,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5069,10 +5069,10 @@
         <v>128</v>
       </c>
       <c r="G111" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H111" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I111">
         <f>LEFT(H111,LEN(H111)-2)/10^((MATCH(RIGHT(H111,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5100,10 +5100,10 @@
         <v>128</v>
       </c>
       <c r="G112" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H112" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I112">
         <f>LEFT(H112,LEN(H112)-2)/10^((MATCH(RIGHT(H112,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5131,10 +5131,10 @@
         <v>128</v>
       </c>
       <c r="G113" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H113" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I113">
         <f>LEFT(H113,LEN(H113)-2)/10^((MATCH(RIGHT(H113,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5162,10 +5162,10 @@
         <v>128</v>
       </c>
       <c r="G114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H114" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I114">
         <f>LEFT(H114,LEN(H114)-2)/10^((MATCH(RIGHT(H114,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5193,10 +5193,10 @@
         <v>64</v>
       </c>
       <c r="G115" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H115" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I115">
         <f>LEFT(H115,LEN(H115)-2)/10^((MATCH(RIGHT(H115,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5224,10 +5224,10 @@
         <v>64</v>
       </c>
       <c r="G116" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H116" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I116">
         <f>LEFT(H116,LEN(H116)-2)/10^((MATCH(RIGHT(H116,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5255,10 +5255,10 @@
         <v>128</v>
       </c>
       <c r="G117" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H117" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I117">
         <f>LEFT(H117,LEN(H117)-2)/10^((MATCH(RIGHT(H117,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5286,10 +5286,10 @@
         <v>128</v>
       </c>
       <c r="G118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I118">
         <f>LEFT(H118,LEN(H118)-2)/10^((MATCH(RIGHT(H118,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5317,10 +5317,10 @@
         <v>128</v>
       </c>
       <c r="G119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I119">
         <f>LEFT(H119,LEN(H119)-2)/10^((MATCH(RIGHT(H119,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5348,10 +5348,10 @@
         <v>128</v>
       </c>
       <c r="G120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H120" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I120">
         <f>LEFT(H120,LEN(H120)-2)/10^((MATCH(RIGHT(H120,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5379,10 +5379,10 @@
         <v>128</v>
       </c>
       <c r="G121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H121" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I121">
         <f>LEFT(H121,LEN(H121)-2)/10^((MATCH(RIGHT(H121,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5410,10 +5410,10 @@
         <v>128</v>
       </c>
       <c r="G122" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H122" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I122">
         <f>LEFT(H122,LEN(H122)-2)/10^((MATCH(RIGHT(H122,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5441,10 +5441,10 @@
         <v>64</v>
       </c>
       <c r="G123" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H123" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I123">
         <f>LEFT(H123,LEN(H123)-2)/10^((MATCH(RIGHT(H123,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5472,10 +5472,10 @@
         <v>64</v>
       </c>
       <c r="G124" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H124" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I124">
         <f>LEFT(H124,LEN(H124)-2)/10^((MATCH(RIGHT(H124,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5503,10 +5503,10 @@
         <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I125">
         <f>LEFT(H125,LEN(H125)-2)/10^((MATCH(RIGHT(H125,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5534,10 +5534,10 @@
         <v>8</v>
       </c>
       <c r="G126" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H126" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I126">
         <f>LEFT(H126,LEN(H126)-2)/10^((MATCH(RIGHT(H126,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5565,10 +5565,10 @@
         <v>64</v>
       </c>
       <c r="G127" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H127" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I127">
         <f>LEFT(H127,LEN(H127)-2)/10^((MATCH(RIGHT(H127,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5596,10 +5596,10 @@
         <v>16</v>
       </c>
       <c r="G128" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H128" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I128">
         <f>LEFT(H128,LEN(H128)-2)/10^((MATCH(RIGHT(H128,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5627,10 +5627,10 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H129" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I129">
         <f>LEFT(H129,LEN(H129)-2)/10^((MATCH(RIGHT(H129,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5658,10 +5658,10 @@
         <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H130" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I130">
         <f>LEFT(H130,LEN(H130)-2)/10^((MATCH(RIGHT(H130,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5689,10 +5689,10 @@
         <v>128</v>
       </c>
       <c r="G131" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I131">
         <f>LEFT(H131,LEN(H131)-2)/10^((MATCH(RIGHT(H131,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5720,10 +5720,10 @@
         <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H132" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I132">
         <f>LEFT(H132,LEN(H132)-2)/10^((MATCH(RIGHT(H132,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5751,10 +5751,10 @@
         <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H133" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I133">
         <f>LEFT(H133,LEN(H133)-2)/10^((MATCH(RIGHT(H133,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5782,10 +5782,10 @@
         <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H134" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I134">
         <f>LEFT(H134,LEN(H134)-2)/10^((MATCH(RIGHT(H134,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5813,10 +5813,10 @@
         <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H135" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I135">
         <f>LEFT(H135,LEN(H135)-2)/10^((MATCH(RIGHT(H135,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5844,10 +5844,10 @@
         <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H136" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I136">
         <f>LEFT(H136,LEN(H136)-2)/10^((MATCH(RIGHT(H136,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5875,10 +5875,10 @@
         <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H137" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I137">
         <f>LEFT(H137,LEN(H137)-2)/10^((MATCH(RIGHT(H137,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="G138" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H138" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I138">
         <f>LEFT(H138,LEN(H138)-2)/10^((MATCH(RIGHT(H138,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5937,10 +5937,10 @@
         <v>64</v>
       </c>
       <c r="G139" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H139" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I139">
         <f>LEFT(H139,LEN(H139)-2)/10^((MATCH(RIGHT(H139,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5968,10 +5968,10 @@
         <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H140" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I140">
         <f>LEFT(H140,LEN(H140)-2)/10^((MATCH(RIGHT(H140,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -5999,10 +5999,10 @@
         <v>128</v>
       </c>
       <c r="G141" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H141" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I141">
         <f>LEFT(H141,LEN(H141)-2)/10^((MATCH(RIGHT(H141,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6030,10 +6030,10 @@
         <v>64</v>
       </c>
       <c r="G142" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H142" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I142">
         <f>LEFT(H142,LEN(H142)-2)/10^((MATCH(RIGHT(H142,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6061,10 +6061,10 @@
         <v>128</v>
       </c>
       <c r="G143" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I143">
         <f>LEFT(H143,LEN(H143)-2)/10^((MATCH(RIGHT(H143,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6092,10 +6092,10 @@
         <v>128</v>
       </c>
       <c r="G144" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H144" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I144">
         <f>LEFT(H144,LEN(H144)-2)/10^((MATCH(RIGHT(H144,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6123,10 +6123,10 @@
         <v>128</v>
       </c>
       <c r="G145" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H145" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I145">
         <f>LEFT(H145,LEN(H145)-2)/10^((MATCH(RIGHT(H145,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6154,10 +6154,10 @@
         <v>64</v>
       </c>
       <c r="G146" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H146" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I146">
         <f>LEFT(H146,LEN(H146)-2)/10^((MATCH(RIGHT(H146,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6185,10 +6185,10 @@
         <v>128</v>
       </c>
       <c r="G147" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H147" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I147">
         <f>LEFT(H147,LEN(H147)-2)/10^((MATCH(RIGHT(H147,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6216,10 +6216,10 @@
         <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H148" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I148">
         <f>LEFT(H148,LEN(H148)-2)/10^((MATCH(RIGHT(H148,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6247,10 +6247,10 @@
         <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H149" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I149">
         <f>LEFT(H149,LEN(H149)-2)/10^((MATCH(RIGHT(H149,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6278,10 +6278,10 @@
         <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H150" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I150">
         <f>LEFT(H150,LEN(H150)-2)/10^((MATCH(RIGHT(H150,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6309,10 +6309,10 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I151">
         <f>LEFT(H151,LEN(H151)-2)/10^((MATCH(RIGHT(H151,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6340,10 +6340,10 @@
         <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I152">
         <f>LEFT(H152,LEN(H152)-2)/10^((MATCH(RIGHT(H152,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6371,10 +6371,10 @@
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H153" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I153">
         <f>LEFT(H153,LEN(H153)-2)/10^((MATCH(RIGHT(H153,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6402,10 +6402,10 @@
         <v>8</v>
       </c>
       <c r="G154" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H154" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I154">
         <f>LEFT(H154,LEN(H154)-2)/10^((MATCH(RIGHT(H154,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6433,10 +6433,10 @@
         <v>32</v>
       </c>
       <c r="G155" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H155" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I155">
         <f>LEFT(H155,LEN(H155)-2)/10^((MATCH(RIGHT(H155,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6464,10 +6464,10 @@
         <v>8</v>
       </c>
       <c r="G156" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H156" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I156">
         <f>LEFT(H156,LEN(H156)-2)/10^((MATCH(RIGHT(H156,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6495,10 +6495,10 @@
         <v>64</v>
       </c>
       <c r="G157" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H157" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I157">
         <f>LEFT(H157,LEN(H157)-2)/10^((MATCH(RIGHT(H157,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6526,10 +6526,10 @@
         <v>128</v>
       </c>
       <c r="G158" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H158" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I158">
         <f>LEFT(H158,LEN(H158)-2)/10^((MATCH(RIGHT(H158,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6557,10 +6557,10 @@
         <v>128</v>
       </c>
       <c r="G159" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H159" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I159">
         <f>LEFT(H159,LEN(H159)-2)/10^((MATCH(RIGHT(H159,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6588,10 +6588,10 @@
         <v>128</v>
       </c>
       <c r="G160" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H160" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I160">
         <f>LEFT(H160,LEN(H160)-2)/10^((MATCH(RIGHT(H160,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6619,10 +6619,10 @@
         <v>128</v>
       </c>
       <c r="G161" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H161" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I161">
         <f>LEFT(H161,LEN(H161)-2)/10^((MATCH(RIGHT(H161,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6650,10 +6650,10 @@
         <v>8</v>
       </c>
       <c r="G162" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H162" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I162">
         <f>LEFT(H162,LEN(H162)-2)/10^((MATCH(RIGHT(H162,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6681,10 +6681,10 @@
         <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H163" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I163">
         <f>LEFT(H163,LEN(H163)-2)/10^((MATCH(RIGHT(H163,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6712,10 +6712,10 @@
         <v>128</v>
       </c>
       <c r="G164" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H164" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I164">
         <f>LEFT(H164,LEN(H164)-2)/10^((MATCH(RIGHT(H164,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6743,10 +6743,10 @@
         <v>64</v>
       </c>
       <c r="G165" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H165" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I165">
         <f>LEFT(H165,LEN(H165)-2)/10^((MATCH(RIGHT(H165,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6774,10 +6774,10 @@
         <v>128</v>
       </c>
       <c r="G166" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H166" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I166">
         <f>LEFT(H166,LEN(H166)-2)/10^((MATCH(RIGHT(H166,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6805,10 +6805,10 @@
         <v>64</v>
       </c>
       <c r="G167" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H167" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I167">
         <f>LEFT(H167,LEN(H167)-2)/10^((MATCH(RIGHT(H167,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6836,10 +6836,10 @@
         <v>64</v>
       </c>
       <c r="G168" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H168" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I168">
         <f>LEFT(H168,LEN(H168)-2)/10^((MATCH(RIGHT(H168,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6867,10 +6867,10 @@
         <v>64</v>
       </c>
       <c r="G169" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H169" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I169">
         <f>LEFT(H169,LEN(H169)-2)/10^((MATCH(RIGHT(H169,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6898,10 +6898,10 @@
         <v>128</v>
       </c>
       <c r="G170" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H170" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I170">
         <f>LEFT(H170,LEN(H170)-2)/10^((MATCH(RIGHT(H170,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6929,10 +6929,10 @@
         <v>128</v>
       </c>
       <c r="G171" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H171" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I171">
         <f>LEFT(H171,LEN(H171)-2)/10^((MATCH(RIGHT(H171,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6960,10 +6960,10 @@
         <v>128</v>
       </c>
       <c r="G172" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H172" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I172">
         <f>LEFT(H172,LEN(H172)-2)/10^((MATCH(RIGHT(H172,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -6991,10 +6991,10 @@
         <v>128</v>
       </c>
       <c r="G173" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H173" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I173">
         <f>LEFT(H173,LEN(H173)-2)/10^((MATCH(RIGHT(H173,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7022,10 +7022,10 @@
         <v>128</v>
       </c>
       <c r="G174" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H174" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I174">
         <f>LEFT(H174,LEN(H174)-2)/10^((MATCH(RIGHT(H174,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7053,10 +7053,10 @@
         <v>16</v>
       </c>
       <c r="G175" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H175" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I175">
         <f>LEFT(H175,LEN(H175)-2)/10^((MATCH(RIGHT(H175,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7084,10 +7084,10 @@
         <v>16</v>
       </c>
       <c r="G176" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H176" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I176">
         <f>LEFT(H176,LEN(H176)-2)/10^((MATCH(RIGHT(H176,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7115,10 +7115,10 @@
         <v>16</v>
       </c>
       <c r="G177" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H177" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I177">
         <f>LEFT(H177,LEN(H177)-2)/10^((MATCH(RIGHT(H177,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7146,10 +7146,10 @@
         <v>16</v>
       </c>
       <c r="G178" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H178" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I178">
         <f>LEFT(H178,LEN(H178)-2)/10^((MATCH(RIGHT(H178,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7177,10 +7177,10 @@
         <v>16</v>
       </c>
       <c r="G179" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H179" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I179">
         <f>LEFT(H179,LEN(H179)-2)/10^((MATCH(RIGHT(H179,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7208,10 +7208,10 @@
         <v>4</v>
       </c>
       <c r="G180" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H180" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I180">
         <f>LEFT(H180,LEN(H180)-2)/10^((MATCH(RIGHT(H180,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7239,10 +7239,10 @@
         <v>16</v>
       </c>
       <c r="G181" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H181" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I181">
         <f>LEFT(H181,LEN(H181)-2)/10^((MATCH(RIGHT(H181,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7270,10 +7270,10 @@
         <v>64</v>
       </c>
       <c r="G182" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H182" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I182">
         <f>LEFT(H182,LEN(H182)-2)/10^((MATCH(RIGHT(H182,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7301,10 +7301,10 @@
         <v>64</v>
       </c>
       <c r="G183" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H183" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I183">
         <f>LEFT(H183,LEN(H183)-2)/10^((MATCH(RIGHT(H183,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7332,10 +7332,10 @@
         <v>64</v>
       </c>
       <c r="G184" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H184" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I184">
         <f>LEFT(H184,LEN(H184)-2)/10^((MATCH(RIGHT(H184,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7363,10 +7363,10 @@
         <v>64</v>
       </c>
       <c r="G185" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H185" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I185">
         <f>LEFT(H185,LEN(H185)-2)/10^((MATCH(RIGHT(H185,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7394,10 +7394,10 @@
         <v>64</v>
       </c>
       <c r="G186" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H186" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I186">
         <f>LEFT(H186,LEN(H186)-2)/10^((MATCH(RIGHT(H186,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7425,10 +7425,10 @@
         <v>64</v>
       </c>
       <c r="G187" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H187" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I187">
         <f>LEFT(H187,LEN(H187)-2)/10^((MATCH(RIGHT(H187,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7456,10 +7456,10 @@
         <v>64</v>
       </c>
       <c r="G188" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H188" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I188">
         <f>LEFT(H188,LEN(H188)-2)/10^((MATCH(RIGHT(H188,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7487,10 +7487,10 @@
         <v>64</v>
       </c>
       <c r="G189" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H189" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I189">
         <f>LEFT(H189,LEN(H189)-2)/10^((MATCH(RIGHT(H189,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7518,10 +7518,10 @@
         <v>64</v>
       </c>
       <c r="G190" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H190" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I190">
         <f>LEFT(H190,LEN(H190)-2)/10^((MATCH(RIGHT(H190,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7549,10 +7549,10 @@
         <v>64</v>
       </c>
       <c r="G191" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H191" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I191">
         <f>LEFT(H191,LEN(H191)-2)/10^((MATCH(RIGHT(H191,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7580,10 +7580,10 @@
         <v>16</v>
       </c>
       <c r="G192" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H192" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I192">
         <f>LEFT(H192,LEN(H192)-2)/10^((MATCH(RIGHT(H192,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7611,10 +7611,10 @@
         <v>16</v>
       </c>
       <c r="G193" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H193" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I193">
         <f>LEFT(H193,LEN(H193)-2)/10^((MATCH(RIGHT(H193,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7642,10 +7642,10 @@
         <v>64</v>
       </c>
       <c r="G194" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H194" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I194">
         <f>LEFT(H194,LEN(H194)-2)/10^((MATCH(RIGHT(H194,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7673,10 +7673,10 @@
         <v>4</v>
       </c>
       <c r="G195" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H195" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I195">
         <f>LEFT(H195,LEN(H195)-2)/10^((MATCH(RIGHT(H195,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7704,10 +7704,10 @@
         <v>16</v>
       </c>
       <c r="G196" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H196" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I196">
         <f>LEFT(H196,LEN(H196)-2)/10^((MATCH(RIGHT(H196,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7735,10 +7735,10 @@
         <v>16</v>
       </c>
       <c r="G197" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H197" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I197">
         <f>LEFT(H197,LEN(H197)-2)/10^((MATCH(RIGHT(H197,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7766,10 +7766,10 @@
         <v>16</v>
       </c>
       <c r="G198" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H198" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I198">
         <f>LEFT(H198,LEN(H198)-2)/10^((MATCH(RIGHT(H198,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7797,10 +7797,10 @@
         <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H199" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I199">
         <f>LEFT(H199,LEN(H199)-2)/10^((MATCH(RIGHT(H199,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7828,10 +7828,10 @@
         <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H200" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I200">
         <f>LEFT(H200,LEN(H200)-2)/10^((MATCH(RIGHT(H200,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7859,10 +7859,10 @@
         <v>16</v>
       </c>
       <c r="G201" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H201" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I201">
         <f>LEFT(H201,LEN(H201)-2)/10^((MATCH(RIGHT(H201,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7890,10 +7890,10 @@
         <v>16</v>
       </c>
       <c r="G202" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H202" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I202">
         <f>LEFT(H202,LEN(H202)-2)/10^((MATCH(RIGHT(H202,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7921,10 +7921,10 @@
         <v>64</v>
       </c>
       <c r="G203" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H203" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I203">
         <f>LEFT(H203,LEN(H203)-2)/10^((MATCH(RIGHT(H203,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7952,10 +7952,10 @@
         <v>64</v>
       </c>
       <c r="G204" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H204" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I204">
         <f>LEFT(H204,LEN(H204)-2)/10^((MATCH(RIGHT(H204,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -7983,10 +7983,10 @@
         <v>64</v>
       </c>
       <c r="G205" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H205" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I205">
         <f>LEFT(H205,LEN(H205)-2)/10^((MATCH(RIGHT(H205,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8014,10 +8014,10 @@
         <v>16</v>
       </c>
       <c r="G206" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H206" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I206">
         <f>LEFT(H206,LEN(H206)-2)/10^((MATCH(RIGHT(H206,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8045,10 +8045,10 @@
         <v>16</v>
       </c>
       <c r="G207" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H207" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I207">
         <f>LEFT(H207,LEN(H207)-2)/10^((MATCH(RIGHT(H207,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8076,10 +8076,10 @@
         <v>32</v>
       </c>
       <c r="G208" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H208" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I208">
         <f>LEFT(H208,LEN(H208)-2)/10^((MATCH(RIGHT(H208,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8107,10 +8107,10 @@
         <v>8</v>
       </c>
       <c r="G209" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H209" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I209">
         <f>LEFT(H209,LEN(H209)-2)/10^((MATCH(RIGHT(H209,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8138,10 +8138,10 @@
         <v>16</v>
       </c>
       <c r="G210" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H210" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I210">
         <f>LEFT(H210,LEN(H210)-2)/10^((MATCH(RIGHT(H210,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8169,10 +8169,10 @@
         <v>128</v>
       </c>
       <c r="G211" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H211" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I211">
         <f>LEFT(H211,LEN(H211)-2)/10^((MATCH(RIGHT(H211,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8200,10 +8200,10 @@
         <v>8</v>
       </c>
       <c r="G212" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H212" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I212">
         <f>LEFT(H212,LEN(H212)-2)/10^((MATCH(RIGHT(H212,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8231,10 +8231,10 @@
         <v>128</v>
       </c>
       <c r="G213" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H213" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I213">
         <f>LEFT(H213,LEN(H213)-2)/10^((MATCH(RIGHT(H213,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8262,10 +8262,10 @@
         <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H214" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I214">
         <f>LEFT(H214,LEN(H214)-2)/10^((MATCH(RIGHT(H214,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8293,10 +8293,10 @@
         <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H215" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I215">
         <f>LEFT(H215,LEN(H215)-2)/10^((MATCH(RIGHT(H215,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8324,10 +8324,10 @@
         <v>32</v>
       </c>
       <c r="G216" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H216" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I216">
         <f>LEFT(H216,LEN(H216)-2)/10^((MATCH(RIGHT(H216,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8355,10 +8355,10 @@
         <v>64</v>
       </c>
       <c r="G217" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H217" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I217">
         <f>LEFT(H217,LEN(H217)-2)/10^((MATCH(RIGHT(H217,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8386,10 +8386,10 @@
         <v>16</v>
       </c>
       <c r="G218" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H218" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I218">
         <f>LEFT(H218,LEN(H218)-2)/10^((MATCH(RIGHT(H218,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8417,10 +8417,10 @@
         <v>128</v>
       </c>
       <c r="G219" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H219" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I219">
         <f>LEFT(H219,LEN(H219)-2)/10^((MATCH(RIGHT(H219,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8448,10 +8448,10 @@
         <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H220" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I220">
         <f>LEFT(H220,LEN(H220)-2)/10^((MATCH(RIGHT(H220,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8479,10 +8479,10 @@
         <v>32</v>
       </c>
       <c r="G221" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H221" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I221">
         <f>LEFT(H221,LEN(H221)-2)/10^((MATCH(RIGHT(H221,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8510,10 +8510,10 @@
         <v>128</v>
       </c>
       <c r="G222" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H222" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I222">
         <f>LEFT(H222,LEN(H222)-2)/10^((MATCH(RIGHT(H222,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8541,10 +8541,10 @@
         <v>128</v>
       </c>
       <c r="G223" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H223" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I223">
         <f>LEFT(H223,LEN(H223)-2)/10^((MATCH(RIGHT(H223,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8572,10 +8572,10 @@
         <v>64</v>
       </c>
       <c r="G224" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H224" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I224">
         <f>LEFT(H224,LEN(H224)-2)/10^((MATCH(RIGHT(H224,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8603,10 +8603,10 @@
         <v>16</v>
       </c>
       <c r="G225" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H225" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I225">
         <f>LEFT(H225,LEN(H225)-2)/10^((MATCH(RIGHT(H225,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8634,10 +8634,10 @@
         <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H226" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I226">
         <f>LEFT(H226,LEN(H226)-2)/10^((MATCH(RIGHT(H226,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8665,10 +8665,10 @@
         <v>4</v>
       </c>
       <c r="G227" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H227" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I227">
         <f>LEFT(H227,LEN(H227)-2)/10^((MATCH(RIGHT(H227,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8696,10 +8696,10 @@
         <v>8</v>
       </c>
       <c r="G228" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H228" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I228">
         <f>LEFT(H228,LEN(H228)-2)/10^((MATCH(RIGHT(H228,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8727,10 +8727,10 @@
         <v>4</v>
       </c>
       <c r="G229" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H229" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I229">
         <f>LEFT(H229,LEN(H229)-2)/10^((MATCH(RIGHT(H229,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8758,10 +8758,10 @@
         <v>64</v>
       </c>
       <c r="G230" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H230" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I230">
         <f>LEFT(H230,LEN(H230)-2)/10^((MATCH(RIGHT(H230,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8789,10 +8789,10 @@
         <v>64</v>
       </c>
       <c r="G231" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H231" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I231">
         <f>LEFT(H231,LEN(H231)-2)/10^((MATCH(RIGHT(H231,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8820,10 +8820,10 @@
         <v>64</v>
       </c>
       <c r="G232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H232" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I232">
         <f>LEFT(H232,LEN(H232)-2)/10^((MATCH(RIGHT(H232,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8851,10 +8851,10 @@
         <v>64</v>
       </c>
       <c r="G233" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H233" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I233">
         <f>LEFT(H233,LEN(H233)-2)/10^((MATCH(RIGHT(H233,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8882,10 +8882,10 @@
         <v>128</v>
       </c>
       <c r="G234" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H234" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I234">
         <f>LEFT(H234,LEN(H234)-2)/10^((MATCH(RIGHT(H234,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8913,10 +8913,10 @@
         <v>8</v>
       </c>
       <c r="G235" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H235" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I235">
         <f>LEFT(H235,LEN(H235)-2)/10^((MATCH(RIGHT(H235,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8944,10 +8944,10 @@
         <v>16</v>
       </c>
       <c r="G236" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H236" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I236">
         <f>LEFT(H236,LEN(H236)-2)/10^((MATCH(RIGHT(H236,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -8975,10 +8975,10 @@
         <v>8</v>
       </c>
       <c r="G237" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H237" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I237">
         <f>LEFT(H237,LEN(H237)-2)/10^((MATCH(RIGHT(H237,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9006,10 +9006,10 @@
         <v>8</v>
       </c>
       <c r="G238" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H238" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I238">
         <f>LEFT(H238,LEN(H238)-2)/10^((MATCH(RIGHT(H238,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9037,10 +9037,10 @@
         <v>16</v>
       </c>
       <c r="G239" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H239" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I239">
         <f>LEFT(H239,LEN(H239)-2)/10^((MATCH(RIGHT(H239,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9068,10 +9068,10 @@
         <v>16</v>
       </c>
       <c r="G240" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H240" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I240">
         <f>LEFT(H240,LEN(H240)-2)/10^((MATCH(RIGHT(H240,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9099,10 +9099,10 @@
         <v>16</v>
       </c>
       <c r="G241" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H241" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I241">
         <f>LEFT(H241,LEN(H241)-2)/10^((MATCH(RIGHT(H241,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9130,10 +9130,10 @@
         <v>64</v>
       </c>
       <c r="G242" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H242" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I242">
         <f>LEFT(H242,LEN(H242)-2)/10^((MATCH(RIGHT(H242,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9161,10 +9161,10 @@
         <v>16</v>
       </c>
       <c r="G243" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H243" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I243">
         <f>LEFT(H243,LEN(H243)-2)/10^((MATCH(RIGHT(H243,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9192,10 +9192,10 @@
         <v>32</v>
       </c>
       <c r="G244" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H244" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I244">
         <f>LEFT(H244,LEN(H244)-2)/10^((MATCH(RIGHT(H244,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9223,10 +9223,10 @@
         <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H245" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I245">
         <f>LEFT(H245,LEN(H245)-2)/10^((MATCH(RIGHT(H245,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9254,10 +9254,10 @@
         <v>128</v>
       </c>
       <c r="G246" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H246" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I246">
         <f>LEFT(H246,LEN(H246)-2)/10^((MATCH(RIGHT(H246,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9285,10 +9285,10 @@
         <v>32</v>
       </c>
       <c r="G247" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H247" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I247">
         <f>LEFT(H247,LEN(H247)-2)/10^((MATCH(RIGHT(H247,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9316,10 +9316,10 @@
         <v>128</v>
       </c>
       <c r="G248" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H248" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I248">
         <f>LEFT(H248,LEN(H248)-2)/10^((MATCH(RIGHT(H248,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9347,10 +9347,10 @@
         <v>16</v>
       </c>
       <c r="G249" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H249" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I249">
         <f>LEFT(H249,LEN(H249)-2)/10^((MATCH(RIGHT(H249,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9378,10 +9378,10 @@
         <v>16</v>
       </c>
       <c r="G250" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H250" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I250">
         <f>LEFT(H250,LEN(H250)-2)/10^((MATCH(RIGHT(H250,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9409,10 +9409,10 @@
         <v>16</v>
       </c>
       <c r="G251" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H251" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I251">
         <f>LEFT(H251,LEN(H251)-2)/10^((MATCH(RIGHT(H251,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9440,10 +9440,10 @@
         <v>16</v>
       </c>
       <c r="G252" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H252" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I252">
         <f>LEFT(H252,LEN(H252)-2)/10^((MATCH(RIGHT(H252,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9471,10 +9471,10 @@
         <v>128</v>
       </c>
       <c r="G253" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H253" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I253">
         <f>LEFT(H253,LEN(H253)-2)/10^((MATCH(RIGHT(H253,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9502,10 +9502,10 @@
         <v>4</v>
       </c>
       <c r="G254" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H254" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I254">
         <f>LEFT(H254,LEN(H254)-2)/10^((MATCH(RIGHT(H254,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9533,10 +9533,10 @@
         <v>64</v>
       </c>
       <c r="G255" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H255" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I255">
         <f>LEFT(H255,LEN(H255)-2)/10^((MATCH(RIGHT(H255,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9564,10 +9564,10 @@
         <v>32</v>
       </c>
       <c r="G256" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H256" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I256">
         <f>LEFT(H256,LEN(H256)-2)/10^((MATCH(RIGHT(H256,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9595,10 +9595,10 @@
         <v>32</v>
       </c>
       <c r="G257" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H257" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I257">
         <f>LEFT(H257,LEN(H257)-2)/10^((MATCH(RIGHT(H257,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9626,10 +9626,10 @@
         <v>64</v>
       </c>
       <c r="G258" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H258" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I258">
         <f>LEFT(H258,LEN(H258)-2)/10^((MATCH(RIGHT(H258,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9657,10 +9657,10 @@
         <v>128</v>
       </c>
       <c r="G259" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H259" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I259">
         <f>LEFT(H259,LEN(H259)-2)/10^((MATCH(RIGHT(H259,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9688,10 +9688,10 @@
         <v>16</v>
       </c>
       <c r="G260" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H260" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I260">
         <f>LEFT(H260,LEN(H260)-2)/10^((MATCH(RIGHT(H260,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9719,10 +9719,10 @@
         <v>128</v>
       </c>
       <c r="G261" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H261" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I261">
         <f>LEFT(H261,LEN(H261)-2)/10^((MATCH(RIGHT(H261,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9750,10 +9750,10 @@
         <v>64</v>
       </c>
       <c r="G262" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H262" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I262">
         <f>LEFT(H262,LEN(H262)-2)/10^((MATCH(RIGHT(H262,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9781,10 +9781,10 @@
         <v>128</v>
       </c>
       <c r="G263" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H263" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I263">
         <f>LEFT(H263,LEN(H263)-2)/10^((MATCH(RIGHT(H263,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9812,10 +9812,10 @@
         <v>128</v>
       </c>
       <c r="G264" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H264" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I264">
         <f>LEFT(H264,LEN(H264)-2)/10^((MATCH(RIGHT(H264,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9843,10 +9843,10 @@
         <v>64</v>
       </c>
       <c r="G265" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H265" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I265">
         <f>LEFT(H265,LEN(H265)-2)/10^((MATCH(RIGHT(H265,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9874,10 +9874,10 @@
         <v>128</v>
       </c>
       <c r="G266" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H266" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I266">
         <f>LEFT(H266,LEN(H266)-2)/10^((MATCH(RIGHT(H266,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9905,10 +9905,10 @@
         <v>128</v>
       </c>
       <c r="G267" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H267" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I267">
         <f>LEFT(H267,LEN(H267)-2)/10^((MATCH(RIGHT(H267,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9936,10 +9936,10 @@
         <v>32</v>
       </c>
       <c r="G268" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H268" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I268">
         <f>LEFT(H268,LEN(H268)-2)/10^((MATCH(RIGHT(H268,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9967,10 +9967,10 @@
         <v>8</v>
       </c>
       <c r="G269" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H269" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I269">
         <f>LEFT(H269,LEN(H269)-2)/10^((MATCH(RIGHT(H269,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -9998,10 +9998,10 @@
         <v>32</v>
       </c>
       <c r="G270" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H270" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I270">
         <f>LEFT(H270,LEN(H270)-2)/10^((MATCH(RIGHT(H270,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10029,10 +10029,10 @@
         <v>16</v>
       </c>
       <c r="G271" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H271" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I271">
         <f>LEFT(H271,LEN(H271)-2)/10^((MATCH(RIGHT(H271,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10060,10 +10060,10 @@
         <v>32</v>
       </c>
       <c r="G272" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H272" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I272">
         <f>LEFT(H272,LEN(H272)-2)/10^((MATCH(RIGHT(H272,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10091,10 +10091,10 @@
         <v>32</v>
       </c>
       <c r="G273" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H273" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I273">
         <f>LEFT(H273,LEN(H273)-2)/10^((MATCH(RIGHT(H273,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10122,10 +10122,10 @@
         <v>128</v>
       </c>
       <c r="G274" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H274" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I274">
         <f>LEFT(H274,LEN(H274)-2)/10^((MATCH(RIGHT(H274,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10153,10 +10153,10 @@
         <v>32</v>
       </c>
       <c r="G275" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H275" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I275">
         <f>LEFT(H275,LEN(H275)-2)/10^((MATCH(RIGHT(H275,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10184,10 +10184,10 @@
         <v>8</v>
       </c>
       <c r="G276" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H276" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I276">
         <f>LEFT(H276,LEN(H276)-2)/10^((MATCH(RIGHT(H276,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10215,10 +10215,10 @@
         <v>128</v>
       </c>
       <c r="G277" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H277" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I277">
         <f>LEFT(H277,LEN(H277)-2)/10^((MATCH(RIGHT(H277,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10246,10 +10246,10 @@
         <v>128</v>
       </c>
       <c r="G278" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H278" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I278">
         <f>LEFT(H278,LEN(H278)-2)/10^((MATCH(RIGHT(H278,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10277,10 +10277,10 @@
         <v>32</v>
       </c>
       <c r="G279" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H279" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I279">
         <f>LEFT(H279,LEN(H279)-2)/10^((MATCH(RIGHT(H279,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10308,10 +10308,10 @@
         <v>128</v>
       </c>
       <c r="G280" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H280" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I280">
         <f>LEFT(H280,LEN(H280)-2)/10^((MATCH(RIGHT(H280,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10339,10 +10339,10 @@
         <v>32</v>
       </c>
       <c r="G281" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H281" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I281">
         <f>LEFT(H281,LEN(H281)-2)/10^((MATCH(RIGHT(H281,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10370,10 +10370,10 @@
         <v>128</v>
       </c>
       <c r="G282" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H282" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I282">
         <f>LEFT(H282,LEN(H282)-2)/10^((MATCH(RIGHT(H282,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10401,10 +10401,10 @@
         <v>32</v>
       </c>
       <c r="G283" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H283" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I283">
         <f>LEFT(H283,LEN(H283)-2)/10^((MATCH(RIGHT(H283,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10432,10 +10432,10 @@
         <v>16</v>
       </c>
       <c r="G284" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H284" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I284">
         <f>LEFT(H284,LEN(H284)-2)/10^((MATCH(RIGHT(H284,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10463,10 +10463,10 @@
         <v>32</v>
       </c>
       <c r="G285" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H285" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I285">
         <f>LEFT(H285,LEN(H285)-2)/10^((MATCH(RIGHT(H285,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10494,10 +10494,10 @@
         <v>32</v>
       </c>
       <c r="G286" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H286" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I286">
         <f>LEFT(H286,LEN(H286)-2)/10^((MATCH(RIGHT(H286,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10525,10 +10525,10 @@
         <v>16</v>
       </c>
       <c r="G287" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H287" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I287">
         <f>LEFT(H287,LEN(H287)-2)/10^((MATCH(RIGHT(H287,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10556,10 +10556,10 @@
         <v>16</v>
       </c>
       <c r="G288" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H288" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I288">
         <f>LEFT(H288,LEN(H288)-2)/10^((MATCH(RIGHT(H288,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10587,10 +10587,10 @@
         <v>32</v>
       </c>
       <c r="G289" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H289" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I289">
         <f>LEFT(H289,LEN(H289)-2)/10^((MATCH(RIGHT(H289,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10618,10 +10618,10 @@
         <v>64</v>
       </c>
       <c r="G290" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H290" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I290">
         <f>LEFT(H290,LEN(H290)-2)/10^((MATCH(RIGHT(H290,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10649,10 +10649,10 @@
         <v>128</v>
       </c>
       <c r="G291" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H291" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I291">
         <f>LEFT(H291,LEN(H291)-2)/10^((MATCH(RIGHT(H291,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10680,10 +10680,10 @@
         <v>64</v>
       </c>
       <c r="G292" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H292" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I292">
         <f>LEFT(H292,LEN(H292)-2)/10^((MATCH(RIGHT(H292,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10711,10 +10711,10 @@
         <v>64</v>
       </c>
       <c r="G293" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H293" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I293">
         <f>LEFT(H293,LEN(H293)-2)/10^((MATCH(RIGHT(H293,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10742,10 +10742,10 @@
         <v>64</v>
       </c>
       <c r="G294" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H294" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I294">
         <f>LEFT(H294,LEN(H294)-2)/10^((MATCH(RIGHT(H294,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10773,10 +10773,10 @@
         <v>128</v>
       </c>
       <c r="G295" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H295" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I295">
         <f>LEFT(H295,LEN(H295)-2)/10^((MATCH(RIGHT(H295,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10804,10 +10804,10 @@
         <v>128</v>
       </c>
       <c r="G296" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H296" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I296">
         <f>LEFT(H296,LEN(H296)-2)/10^((MATCH(RIGHT(H296,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10835,10 +10835,10 @@
         <v>128</v>
       </c>
       <c r="G297" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H297" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I297">
         <f>LEFT(H297,LEN(H297)-2)/10^((MATCH(RIGHT(H297,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10866,10 +10866,10 @@
         <v>128</v>
       </c>
       <c r="G298" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H298" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I298">
         <f>LEFT(H298,LEN(H298)-2)/10^((MATCH(RIGHT(H298,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10897,10 +10897,10 @@
         <v>16</v>
       </c>
       <c r="G299" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H299" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I299">
         <f>LEFT(H299,LEN(H299)-2)/10^((MATCH(RIGHT(H299,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10928,10 +10928,10 @@
         <v>4</v>
       </c>
       <c r="G300" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H300" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I300">
         <f>LEFT(H300,LEN(H300)-2)/10^((MATCH(RIGHT(H300,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10959,10 +10959,10 @@
         <v>16</v>
       </c>
       <c r="G301" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H301" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I301">
         <f>LEFT(H301,LEN(H301)-2)/10^((MATCH(RIGHT(H301,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -10990,10 +10990,10 @@
         <v>16</v>
       </c>
       <c r="G302" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H302" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I302">
         <f>LEFT(H302,LEN(H302)-2)/10^((MATCH(RIGHT(H302,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11021,10 +11021,10 @@
         <v>64</v>
       </c>
       <c r="G303" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H303" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I303">
         <f>LEFT(H303,LEN(H303)-2)/10^((MATCH(RIGHT(H303,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11052,10 +11052,10 @@
         <v>64</v>
       </c>
       <c r="G304" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H304" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I304">
         <f>LEFT(H304,LEN(H304)-2)/10^((MATCH(RIGHT(H304,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11083,10 +11083,10 @@
         <v>8</v>
       </c>
       <c r="G305" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H305" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I305">
         <f>LEFT(H305,LEN(H305)-2)/10^((MATCH(RIGHT(H305,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11114,10 +11114,10 @@
         <v>16</v>
       </c>
       <c r="G306" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H306" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I306">
         <f>LEFT(H306,LEN(H306)-2)/10^((MATCH(RIGHT(H306,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11145,10 +11145,10 @@
         <v>64</v>
       </c>
       <c r="G307" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H307" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I307">
         <f>LEFT(H307,LEN(H307)-2)/10^((MATCH(RIGHT(H307,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11176,10 +11176,10 @@
         <v>16</v>
       </c>
       <c r="G308" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H308" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I308">
         <f>LEFT(H308,LEN(H308)-2)/10^((MATCH(RIGHT(H308,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11207,10 +11207,10 @@
         <v>16</v>
       </c>
       <c r="G309" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H309" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I309">
         <f>LEFT(H309,LEN(H309)-2)/10^((MATCH(RIGHT(H309,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11238,10 +11238,10 @@
         <v>64</v>
       </c>
       <c r="G310" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H310" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I310">
         <f>LEFT(H310,LEN(H310)-2)/10^((MATCH(RIGHT(H310,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11269,10 +11269,10 @@
         <v>64</v>
       </c>
       <c r="G311" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H311" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I311">
         <f>LEFT(H311,LEN(H311)-2)/10^((MATCH(RIGHT(H311,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11300,10 +11300,10 @@
         <v>64</v>
       </c>
       <c r="G312" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H312" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I312">
         <f>LEFT(H312,LEN(H312)-2)/10^((MATCH(RIGHT(H312,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11331,10 +11331,10 @@
         <v>64</v>
       </c>
       <c r="G313" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H313" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I313">
         <f>LEFT(H313,LEN(H313)-2)/10^((MATCH(RIGHT(H313,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11362,10 +11362,10 @@
         <v>64</v>
       </c>
       <c r="G314" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H314" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I314">
         <f>LEFT(H314,LEN(H314)-2)/10^((MATCH(RIGHT(H314,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11393,10 +11393,10 @@
         <v>64</v>
       </c>
       <c r="G315" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H315" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I315">
         <f>LEFT(H315,LEN(H315)-2)/10^((MATCH(RIGHT(H315,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11424,10 +11424,10 @@
         <v>32</v>
       </c>
       <c r="G316" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H316" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I316">
         <f>LEFT(H316,LEN(H316)-2)/10^((MATCH(RIGHT(H316,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11455,10 +11455,10 @@
         <v>32</v>
       </c>
       <c r="G317" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H317" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I317">
         <f>LEFT(H317,LEN(H317)-2)/10^((MATCH(RIGHT(H317,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11486,10 +11486,10 @@
         <v>16</v>
       </c>
       <c r="G318" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H318" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I318">
         <f>LEFT(H318,LEN(H318)-2)/10^((MATCH(RIGHT(H318,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11517,10 +11517,10 @@
         <v>128</v>
       </c>
       <c r="G319" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H319" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I319">
         <f>LEFT(H319,LEN(H319)-2)/10^((MATCH(RIGHT(H319,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11548,10 +11548,10 @@
         <v>32</v>
       </c>
       <c r="G320" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H320" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I320">
         <f>LEFT(H320,LEN(H320)-2)/10^((MATCH(RIGHT(H320,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11579,10 +11579,10 @@
         <v>16</v>
       </c>
       <c r="G321" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H321" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I321">
         <f>LEFT(H321,LEN(H321)-2)/10^((MATCH(RIGHT(H321,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11610,10 +11610,10 @@
         <v>32</v>
       </c>
       <c r="G322" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H322" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I322">
         <f>LEFT(H322,LEN(H322)-2)/10^((MATCH(RIGHT(H322,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11641,10 +11641,10 @@
         <v>32</v>
       </c>
       <c r="G323" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H323" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I323">
         <f>LEFT(H323,LEN(H323)-2)/10^((MATCH(RIGHT(H323,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11672,10 +11672,10 @@
         <v>64</v>
       </c>
       <c r="G324" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H324" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I324">
         <f>LEFT(H324,LEN(H324)-2)/10^((MATCH(RIGHT(H324,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11703,10 +11703,10 @@
         <v>64</v>
       </c>
       <c r="G325" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H325" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I325">
         <f>LEFT(H325,LEN(H325)-2)/10^((MATCH(RIGHT(H325,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11734,10 +11734,10 @@
         <v>32</v>
       </c>
       <c r="G326" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H326" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I326">
         <f>LEFT(H326,LEN(H326)-2)/10^((MATCH(RIGHT(H326,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11765,10 +11765,10 @@
         <v>8</v>
       </c>
       <c r="G327" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H327" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I327">
         <f>LEFT(H327,LEN(H327)-2)/10^((MATCH(RIGHT(H327,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11796,10 +11796,10 @@
         <v>16</v>
       </c>
       <c r="G328" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H328" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I328">
         <f>LEFT(H328,LEN(H328)-2)/10^((MATCH(RIGHT(H328,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11827,10 +11827,10 @@
         <v>8</v>
       </c>
       <c r="G329" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H329" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I329">
         <f>LEFT(H329,LEN(H329)-2)/10^((MATCH(RIGHT(H329,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11858,10 +11858,10 @@
         <v>16</v>
       </c>
       <c r="G330" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H330" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I330">
         <f>LEFT(H330,LEN(H330)-2)/10^((MATCH(RIGHT(H330,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11889,10 +11889,10 @@
         <v>16</v>
       </c>
       <c r="G331" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H331" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I331">
         <f>LEFT(H331,LEN(H331)-2)/10^((MATCH(RIGHT(H331,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11920,10 +11920,10 @@
         <v>16</v>
       </c>
       <c r="G332" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H332" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I332">
         <f>LEFT(H332,LEN(H332)-2)/10^((MATCH(RIGHT(H332,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11951,10 +11951,10 @@
         <v>128</v>
       </c>
       <c r="G333" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H333" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I333">
         <f>LEFT(H333,LEN(H333)-2)/10^((MATCH(RIGHT(H333,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -11982,10 +11982,10 @@
         <v>32</v>
       </c>
       <c r="G334" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H334" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I334">
         <f>LEFT(H334,LEN(H334)-2)/10^((MATCH(RIGHT(H334,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12013,10 +12013,10 @@
         <v>8</v>
       </c>
       <c r="G335" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H335" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I335">
         <f>LEFT(H335,LEN(H335)-2)/10^((MATCH(RIGHT(H335,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12044,10 +12044,10 @@
         <v>32</v>
       </c>
       <c r="G336" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H336" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I336">
         <f>LEFT(H336,LEN(H336)-2)/10^((MATCH(RIGHT(H336,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12075,10 +12075,10 @@
         <v>64</v>
       </c>
       <c r="G337" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H337" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I337">
         <f>LEFT(H337,LEN(H337)-2)/10^((MATCH(RIGHT(H337,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12106,10 +12106,10 @@
         <v>16</v>
       </c>
       <c r="G338" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H338" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I338">
         <f>LEFT(H338,LEN(H338)-2)/10^((MATCH(RIGHT(H338,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12137,10 +12137,10 @@
         <v>32</v>
       </c>
       <c r="G339" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H339" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I339">
         <f>LEFT(H339,LEN(H339)-2)/10^((MATCH(RIGHT(H339,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12168,10 +12168,10 @@
         <v>32</v>
       </c>
       <c r="G340" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H340" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I340">
         <f>LEFT(H340,LEN(H340)-2)/10^((MATCH(RIGHT(H340,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12199,10 +12199,10 @@
         <v>128</v>
       </c>
       <c r="G341" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H341" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I341">
         <f>LEFT(H341,LEN(H341)-2)/10^((MATCH(RIGHT(H341,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12230,10 +12230,10 @@
         <v>32</v>
       </c>
       <c r="G342" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H342" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I342">
         <f>LEFT(H342,LEN(H342)-2)/10^((MATCH(RIGHT(H342,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12261,10 +12261,10 @@
         <v>32</v>
       </c>
       <c r="G343" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H343" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I343">
         <f>LEFT(H343,LEN(H343)-2)/10^((MATCH(RIGHT(H343,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12292,10 +12292,10 @@
         <v>32</v>
       </c>
       <c r="G344" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H344" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I344">
         <f>LEFT(H344,LEN(H344)-2)/10^((MATCH(RIGHT(H344,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12323,10 +12323,10 @@
         <v>64</v>
       </c>
       <c r="G345" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H345" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I345">
         <f>LEFT(H345,LEN(H345)-2)/10^((MATCH(RIGHT(H345,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12354,10 +12354,10 @@
         <v>128</v>
       </c>
       <c r="G346" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H346" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I346">
         <f>LEFT(H346,LEN(H346)-2)/10^((MATCH(RIGHT(H346,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12385,10 +12385,10 @@
         <v>16</v>
       </c>
       <c r="G347" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H347" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I347">
         <f>LEFT(H347,LEN(H347)-2)/10^((MATCH(RIGHT(H347,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12416,10 +12416,10 @@
         <v>64</v>
       </c>
       <c r="G348" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H348" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I348">
         <f>LEFT(H348,LEN(H348)-2)/10^((MATCH(RIGHT(H348,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12447,10 +12447,10 @@
         <v>128</v>
       </c>
       <c r="G349" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H349" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I349">
         <f>LEFT(H349,LEN(H349)-2)/10^((MATCH(RIGHT(H349,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12478,10 +12478,10 @@
         <v>64</v>
       </c>
       <c r="G350" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H350" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I350">
         <f>LEFT(H350,LEN(H350)-2)/10^((MATCH(RIGHT(H350,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12509,10 +12509,10 @@
         <v>128</v>
       </c>
       <c r="G351" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H351" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I351">
         <f>LEFT(H351,LEN(H351)-2)/10^((MATCH(RIGHT(H351,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12540,10 +12540,10 @@
         <v>128</v>
       </c>
       <c r="G352" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H352" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I352">
         <f>LEFT(H352,LEN(H352)-2)/10^((MATCH(RIGHT(H352,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12571,10 +12571,10 @@
         <v>128</v>
       </c>
       <c r="G353" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H353" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I353">
         <f>LEFT(H353,LEN(H353)-2)/10^((MATCH(RIGHT(H353,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12602,10 +12602,10 @@
         <v>32</v>
       </c>
       <c r="G354" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H354" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I354">
         <f>LEFT(H354,LEN(H354)-2)/10^((MATCH(RIGHT(H354,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12633,10 +12633,10 @@
         <v>64</v>
       </c>
       <c r="G355" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H355" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I355">
         <f>LEFT(H355,LEN(H355)-2)/10^((MATCH(RIGHT(H355,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12664,10 +12664,10 @@
         <v>128</v>
       </c>
       <c r="G356" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H356" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I356">
         <f>LEFT(H356,LEN(H356)-2)/10^((MATCH(RIGHT(H356,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12695,10 +12695,10 @@
         <v>128</v>
       </c>
       <c r="G357" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H357" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I357">
         <f>LEFT(H357,LEN(H357)-2)/10^((MATCH(RIGHT(H357,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12726,10 +12726,10 @@
         <v>32</v>
       </c>
       <c r="G358" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H358" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I358">
         <f>LEFT(H358,LEN(H358)-2)/10^((MATCH(RIGHT(H358,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12757,10 +12757,10 @@
         <v>32</v>
       </c>
       <c r="G359" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H359" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I359">
         <f>LEFT(H359,LEN(H359)-2)/10^((MATCH(RIGHT(H359,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12788,10 +12788,10 @@
         <v>64</v>
       </c>
       <c r="G360" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H360" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I360">
         <f>LEFT(H360,LEN(H360)-2)/10^((MATCH(RIGHT(H360,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12819,10 +12819,10 @@
         <v>128</v>
       </c>
       <c r="G361" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H361" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I361">
         <f>LEFT(H361,LEN(H361)-2)/10^((MATCH(RIGHT(H361,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12850,10 +12850,10 @@
         <v>128</v>
       </c>
       <c r="G362" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H362" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I362">
         <f>LEFT(H362,LEN(H362)-2)/10^((MATCH(RIGHT(H362,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12881,10 +12881,10 @@
         <v>64</v>
       </c>
       <c r="G363" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H363" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I363">
         <f>LEFT(H363,LEN(H363)-2)/10^((MATCH(RIGHT(H363,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12912,10 +12912,10 @@
         <v>64</v>
       </c>
       <c r="G364" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H364" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I364">
         <f>LEFT(H364,LEN(H364)-2)/10^((MATCH(RIGHT(H364,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12943,10 +12943,10 @@
         <v>128</v>
       </c>
       <c r="G365" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H365" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I365">
         <f>LEFT(H365,LEN(H365)-2)/10^((MATCH(RIGHT(H365,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -12974,10 +12974,10 @@
         <v>64</v>
       </c>
       <c r="G366" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H366" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I366">
         <f>LEFT(H366,LEN(H366)-2)/10^((MATCH(RIGHT(H366,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13005,10 +13005,10 @@
         <v>128</v>
       </c>
       <c r="G367" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H367" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I367">
         <f>LEFT(H367,LEN(H367)-2)/10^((MATCH(RIGHT(H367,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13036,10 +13036,10 @@
         <v>128</v>
       </c>
       <c r="G368" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H368" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I368">
         <f>LEFT(H368,LEN(H368)-2)/10^((MATCH(RIGHT(H368,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13067,10 +13067,10 @@
         <v>16</v>
       </c>
       <c r="G369" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H369" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I369">
         <f>LEFT(H369,LEN(H369)-2)/10^((MATCH(RIGHT(H369,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13098,10 +13098,10 @@
         <v>16</v>
       </c>
       <c r="G370" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H370" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I370">
         <f>LEFT(H370,LEN(H370)-2)/10^((MATCH(RIGHT(H370,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13129,10 +13129,10 @@
         <v>16</v>
       </c>
       <c r="G371" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H371" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I371">
         <f>LEFT(H371,LEN(H371)-2)/10^((MATCH(RIGHT(H371,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13160,10 +13160,10 @@
         <v>64</v>
       </c>
       <c r="G372" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H372" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I372">
         <f>LEFT(H372,LEN(H372)-2)/10^((MATCH(RIGHT(H372,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13191,10 +13191,10 @@
         <v>8</v>
       </c>
       <c r="G373" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H373" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I373">
         <f>LEFT(H373,LEN(H373)-2)/10^((MATCH(RIGHT(H373,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13222,10 +13222,10 @@
         <v>16</v>
       </c>
       <c r="G374" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H374" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I374">
         <f>LEFT(H374,LEN(H374)-2)/10^((MATCH(RIGHT(H374,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13253,10 +13253,10 @@
         <v>64</v>
       </c>
       <c r="G375" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H375" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I375">
         <f>LEFT(H375,LEN(H375)-2)/10^((MATCH(RIGHT(H375,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13284,10 +13284,10 @@
         <v>16</v>
       </c>
       <c r="G376" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H376" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I376">
         <f>LEFT(H376,LEN(H376)-2)/10^((MATCH(RIGHT(H376,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13315,10 +13315,10 @@
         <v>4</v>
       </c>
       <c r="G377" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H377" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I377">
         <f>LEFT(H377,LEN(H377)-2)/10^((MATCH(RIGHT(H377,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13346,10 +13346,10 @@
         <v>64</v>
       </c>
       <c r="G378" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H378" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I378">
         <f>LEFT(H378,LEN(H378)-2)/10^((MATCH(RIGHT(H378,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13377,10 +13377,10 @@
         <v>64</v>
       </c>
       <c r="G379" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H379" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I379">
         <f>LEFT(H379,LEN(H379)-2)/10^((MATCH(RIGHT(H379,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13408,10 +13408,10 @@
         <v>64</v>
       </c>
       <c r="G380" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H380" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I380">
         <f>LEFT(H380,LEN(H380)-2)/10^((MATCH(RIGHT(H380,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13439,10 +13439,10 @@
         <v>64</v>
       </c>
       <c r="G381" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H381" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I381">
         <f>LEFT(H381,LEN(H381)-2)/10^((MATCH(RIGHT(H381,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13470,10 +13470,10 @@
         <v>64</v>
       </c>
       <c r="G382" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H382" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I382">
         <f>LEFT(H382,LEN(H382)-2)/10^((MATCH(RIGHT(H382,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13501,10 +13501,10 @@
         <v>64</v>
       </c>
       <c r="G383" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H383" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I383">
         <f>LEFT(H383,LEN(H383)-2)/10^((MATCH(RIGHT(H383,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13532,10 +13532,10 @@
         <v>64</v>
       </c>
       <c r="G384" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H384" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I384">
         <f>LEFT(H384,LEN(H384)-2)/10^((MATCH(RIGHT(H384,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13563,10 +13563,10 @@
         <v>32</v>
       </c>
       <c r="G385" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H385" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I385">
         <f>LEFT(H385,LEN(H385)-2)/10^((MATCH(RIGHT(H385,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13594,10 +13594,10 @@
         <v>32</v>
       </c>
       <c r="G386" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H386" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I386">
         <f>LEFT(H386,LEN(H386)-2)/10^((MATCH(RIGHT(H386,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13625,10 +13625,10 @@
         <v>32</v>
       </c>
       <c r="G387" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H387" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I387">
         <f>LEFT(H387,LEN(H387)-2)/10^((MATCH(RIGHT(H387,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13656,10 +13656,10 @@
         <v>32</v>
       </c>
       <c r="G388" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H388" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I388">
         <f>LEFT(H388,LEN(H388)-2)/10^((MATCH(RIGHT(H388,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13687,10 +13687,10 @@
         <v>128</v>
       </c>
       <c r="G389" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H389" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I389">
         <f>LEFT(H389,LEN(H389)-2)/10^((MATCH(RIGHT(H389,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13718,10 +13718,10 @@
         <v>16</v>
       </c>
       <c r="G390" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H390" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I390">
         <f>LEFT(H390,LEN(H390)-2)/10^((MATCH(RIGHT(H390,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13749,10 +13749,10 @@
         <v>64</v>
       </c>
       <c r="G391" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H391" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I391">
         <f>LEFT(H391,LEN(H391)-2)/10^((MATCH(RIGHT(H391,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13780,10 +13780,10 @@
         <v>64</v>
       </c>
       <c r="G392" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H392" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I392">
         <f>LEFT(H392,LEN(H392)-2)/10^((MATCH(RIGHT(H392,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13811,10 +13811,10 @@
         <v>16</v>
       </c>
       <c r="G393" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H393" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I393">
         <f>LEFT(H393,LEN(H393)-2)/10^((MATCH(RIGHT(H393,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13842,10 +13842,10 @@
         <v>32</v>
       </c>
       <c r="G394" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H394" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I394">
         <f>LEFT(H394,LEN(H394)-2)/10^((MATCH(RIGHT(H394,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13873,10 +13873,10 @@
         <v>4</v>
       </c>
       <c r="G395" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H395" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I395">
         <f>LEFT(H395,LEN(H395)-2)/10^((MATCH(RIGHT(H395,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13904,10 +13904,10 @@
         <v>32</v>
       </c>
       <c r="G396" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H396" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I396">
         <f>LEFT(H396,LEN(H396)-2)/10^((MATCH(RIGHT(H396,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13935,10 +13935,10 @@
         <v>32</v>
       </c>
       <c r="G397" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H397" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I397">
         <f>LEFT(H397,LEN(H397)-2)/10^((MATCH(RIGHT(H397,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13966,10 +13966,10 @@
         <v>64</v>
       </c>
       <c r="G398" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H398" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I398">
         <f>LEFT(H398,LEN(H398)-2)/10^((MATCH(RIGHT(H398,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -13997,10 +13997,10 @@
         <v>16</v>
       </c>
       <c r="G399" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H399" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I399">
         <f>LEFT(H399,LEN(H399)-2)/10^((MATCH(RIGHT(H399,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14028,10 +14028,10 @@
         <v>32</v>
       </c>
       <c r="G400" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H400" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I400">
         <f>LEFT(H400,LEN(H400)-2)/10^((MATCH(RIGHT(H400,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14059,10 +14059,10 @@
         <v>32</v>
       </c>
       <c r="G401" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H401" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I401">
         <f>LEFT(H401,LEN(H401)-2)/10^((MATCH(RIGHT(H401,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14090,10 +14090,10 @@
         <v>128</v>
       </c>
       <c r="G402" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H402" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I402">
         <f>LEFT(H402,LEN(H402)-2)/10^((MATCH(RIGHT(H402,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14121,10 +14121,10 @@
         <v>128</v>
       </c>
       <c r="G403" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H403" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I403">
         <f>LEFT(H403,LEN(H403)-2)/10^((MATCH(RIGHT(H403,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14152,10 +14152,10 @@
         <v>32</v>
       </c>
       <c r="G404" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H404" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I404">
         <f>LEFT(H404,LEN(H404)-2)/10^((MATCH(RIGHT(H404,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14183,10 +14183,10 @@
         <v>8</v>
       </c>
       <c r="G405" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H405" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I405">
         <f>LEFT(H405,LEN(H405)-2)/10^((MATCH(RIGHT(H405,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14214,10 +14214,10 @@
         <v>4</v>
       </c>
       <c r="G406" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H406" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I406">
         <f>LEFT(H406,LEN(H406)-2)/10^((MATCH(RIGHT(H406,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14245,10 +14245,10 @@
         <v>16</v>
       </c>
       <c r="G407" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H407" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I407">
         <f>LEFT(H407,LEN(H407)-2)/10^((MATCH(RIGHT(H407,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14276,10 +14276,10 @@
         <v>16</v>
       </c>
       <c r="G408" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H408" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I408">
         <f>LEFT(H408,LEN(H408)-2)/10^((MATCH(RIGHT(H408,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14307,10 +14307,10 @@
         <v>16</v>
       </c>
       <c r="G409" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H409" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I409">
         <f>LEFT(H409,LEN(H409)-2)/10^((MATCH(RIGHT(H409,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14338,10 +14338,10 @@
         <v>16</v>
       </c>
       <c r="G410" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H410" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I410">
         <f>LEFT(H410,LEN(H410)-2)/10^((MATCH(RIGHT(H410,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14369,10 +14369,10 @@
         <v>16</v>
       </c>
       <c r="G411" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H411" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I411">
         <f>LEFT(H411,LEN(H411)-2)/10^((MATCH(RIGHT(H411,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14400,10 +14400,10 @@
         <v>8</v>
       </c>
       <c r="G412" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H412" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I412">
         <f>LEFT(H412,LEN(H412)-2)/10^((MATCH(RIGHT(H412,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14431,10 +14431,10 @@
         <v>16</v>
       </c>
       <c r="G413" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H413" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I413">
         <f>LEFT(H413,LEN(H413)-2)/10^((MATCH(RIGHT(H413,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14462,10 +14462,10 @@
         <v>16</v>
       </c>
       <c r="G414" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H414" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I414">
         <f>LEFT(H414,LEN(H414)-2)/10^((MATCH(RIGHT(H414,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14493,10 +14493,10 @@
         <v>128</v>
       </c>
       <c r="G415" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H415" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I415">
         <f>LEFT(H415,LEN(H415)-2)/10^((MATCH(RIGHT(H415,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14524,10 +14524,10 @@
         <v>8</v>
       </c>
       <c r="G416" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H416" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I416">
         <f>LEFT(H416,LEN(H416)-2)/10^((MATCH(RIGHT(H416,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14555,10 +14555,10 @@
         <v>32</v>
       </c>
       <c r="G417" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H417" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I417">
         <f>LEFT(H417,LEN(H417)-2)/10^((MATCH(RIGHT(H417,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14586,10 +14586,10 @@
         <v>32</v>
       </c>
       <c r="G418" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H418" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I418">
         <f>LEFT(H418,LEN(H418)-2)/10^((MATCH(RIGHT(H418,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14617,10 +14617,10 @@
         <v>64</v>
       </c>
       <c r="G419" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H419" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I419">
         <f>LEFT(H419,LEN(H419)-2)/10^((MATCH(RIGHT(H419,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14648,10 +14648,10 @@
         <v>16</v>
       </c>
       <c r="G420" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H420" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I420">
         <f>LEFT(H420,LEN(H420)-2)/10^((MATCH(RIGHT(H420,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14679,10 +14679,10 @@
         <v>32</v>
       </c>
       <c r="G421" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H421" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I421">
         <f>LEFT(H421,LEN(H421)-2)/10^((MATCH(RIGHT(H421,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14710,10 +14710,10 @@
         <v>32</v>
       </c>
       <c r="G422" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H422" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I422">
         <f>LEFT(H422,LEN(H422)-2)/10^((MATCH(RIGHT(H422,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14741,10 +14741,10 @@
         <v>128</v>
       </c>
       <c r="G423" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H423" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I423">
         <f>LEFT(H423,LEN(H423)-2)/10^((MATCH(RIGHT(H423,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14772,10 +14772,10 @@
         <v>32</v>
       </c>
       <c r="G424" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H424" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I424">
         <f>LEFT(H424,LEN(H424)-2)/10^((MATCH(RIGHT(H424,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14803,10 +14803,10 @@
         <v>64</v>
       </c>
       <c r="G425" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H425" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I425">
         <f>LEFT(H425,LEN(H425)-2)/10^((MATCH(RIGHT(H425,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14834,10 +14834,10 @@
         <v>128</v>
       </c>
       <c r="G426" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H426" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I426">
         <f>LEFT(H426,LEN(H426)-2)/10^((MATCH(RIGHT(H426,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14865,10 +14865,10 @@
         <v>16</v>
       </c>
       <c r="G427" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H427" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I427">
         <f>LEFT(H427,LEN(H427)-2)/10^((MATCH(RIGHT(H427,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14896,10 +14896,10 @@
         <v>128</v>
       </c>
       <c r="G428" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H428" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I428">
         <f>LEFT(H428,LEN(H428)-2)/10^((MATCH(RIGHT(H428,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14927,10 +14927,10 @@
         <v>64</v>
       </c>
       <c r="G429" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H429" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I429">
         <f>LEFT(H429,LEN(H429)-2)/10^((MATCH(RIGHT(H429,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14958,10 +14958,10 @@
         <v>128</v>
       </c>
       <c r="G430" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H430" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I430">
         <f>LEFT(H430,LEN(H430)-2)/10^((MATCH(RIGHT(H430,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -14989,10 +14989,10 @@
         <v>128</v>
       </c>
       <c r="G431" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H431" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I431">
         <f>LEFT(H431,LEN(H431)-2)/10^((MATCH(RIGHT(H431,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15020,10 +15020,10 @@
         <v>64</v>
       </c>
       <c r="G432" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H432" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I432">
         <f>LEFT(H432,LEN(H432)-2)/10^((MATCH(RIGHT(H432,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15051,10 +15051,10 @@
         <v>128</v>
       </c>
       <c r="G433" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H433" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I433">
         <f>LEFT(H433,LEN(H433)-2)/10^((MATCH(RIGHT(H433,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15082,10 +15082,10 @@
         <v>128</v>
       </c>
       <c r="G434" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H434" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I434">
         <f>LEFT(H434,LEN(H434)-2)/10^((MATCH(RIGHT(H434,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15113,10 +15113,10 @@
         <v>32</v>
       </c>
       <c r="G435" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H435" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I435">
         <f>LEFT(H435,LEN(H435)-2)/10^((MATCH(RIGHT(H435,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15144,10 +15144,10 @@
         <v>128</v>
       </c>
       <c r="G436" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H436" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I436">
         <f>LEFT(H436,LEN(H436)-2)/10^((MATCH(RIGHT(H436,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15175,10 +15175,10 @@
         <v>128</v>
       </c>
       <c r="G437" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H437" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I437">
         <f>LEFT(H437,LEN(H437)-2)/10^((MATCH(RIGHT(H437,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15206,10 +15206,10 @@
         <v>16</v>
       </c>
       <c r="G438" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H438" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I438">
         <f>LEFT(H438,LEN(H438)-2)/10^((MATCH(RIGHT(H438,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15237,10 +15237,10 @@
         <v>32</v>
       </c>
       <c r="G439" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H439" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I439">
         <f>LEFT(H439,LEN(H439)-2)/10^((MATCH(RIGHT(H439,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15268,10 +15268,10 @@
         <v>128</v>
       </c>
       <c r="G440" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H440" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I440">
         <f>LEFT(H440,LEN(H440)-2)/10^((MATCH(RIGHT(H440,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15299,10 +15299,10 @@
         <v>32</v>
       </c>
       <c r="G441" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H441" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I441">
         <f>LEFT(H441,LEN(H441)-2)/10^((MATCH(RIGHT(H441,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15330,10 +15330,10 @@
         <v>64</v>
       </c>
       <c r="G442" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H442" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I442">
         <f>LEFT(H442,LEN(H442)-2)/10^((MATCH(RIGHT(H442,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15361,10 +15361,10 @@
         <v>128</v>
       </c>
       <c r="G443" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H443" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I443">
         <f>LEFT(H443,LEN(H443)-2)/10^((MATCH(RIGHT(H443,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15392,10 +15392,10 @@
         <v>128</v>
       </c>
       <c r="G444" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H444" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I444">
         <f>LEFT(H444,LEN(H444)-2)/10^((MATCH(RIGHT(H444,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15423,10 +15423,10 @@
         <v>64</v>
       </c>
       <c r="G445" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H445" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I445">
         <f>LEFT(H445,LEN(H445)-2)/10^((MATCH(RIGHT(H445,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15454,10 +15454,10 @@
         <v>64</v>
       </c>
       <c r="G446" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H446" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I446">
         <f>LEFT(H446,LEN(H446)-2)/10^((MATCH(RIGHT(H446,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15485,10 +15485,10 @@
         <v>64</v>
       </c>
       <c r="G447" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H447" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I447">
         <f>LEFT(H447,LEN(H447)-2)/10^((MATCH(RIGHT(H447,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15516,10 +15516,10 @@
         <v>128</v>
       </c>
       <c r="G448" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H448" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I448">
         <f>LEFT(H448,LEN(H448)-2)/10^((MATCH(RIGHT(H448,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15547,10 +15547,10 @@
         <v>128</v>
       </c>
       <c r="G449" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H449" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I449">
         <f>LEFT(H449,LEN(H449)-2)/10^((MATCH(RIGHT(H449,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15578,10 +15578,10 @@
         <v>128</v>
       </c>
       <c r="G450" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H450" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I450">
         <f>LEFT(H450,LEN(H450)-2)/10^((MATCH(RIGHT(H450,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15609,10 +15609,10 @@
         <v>64</v>
       </c>
       <c r="G451" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H451" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I451">
         <f>LEFT(H451,LEN(H451)-2)/10^((MATCH(RIGHT(H451,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15640,10 +15640,10 @@
         <v>64</v>
       </c>
       <c r="G452" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H452" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I452">
         <f>LEFT(H452,LEN(H452)-2)/10^((MATCH(RIGHT(H452,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15671,10 +15671,10 @@
         <v>16</v>
       </c>
       <c r="G453" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H453" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I453">
         <f>LEFT(H453,LEN(H453)-2)/10^((MATCH(RIGHT(H453,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15702,10 +15702,10 @@
         <v>16</v>
       </c>
       <c r="G454" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H454" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I454">
         <f>LEFT(H454,LEN(H454)-2)/10^((MATCH(RIGHT(H454,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15733,10 +15733,10 @@
         <v>16</v>
       </c>
       <c r="G455" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H455" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I455">
         <f>LEFT(H455,LEN(H455)-2)/10^((MATCH(RIGHT(H455,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15764,10 +15764,10 @@
         <v>64</v>
       </c>
       <c r="G456" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H456" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I456">
         <f>LEFT(H456,LEN(H456)-2)/10^((MATCH(RIGHT(H456,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15795,10 +15795,10 @@
         <v>4</v>
       </c>
       <c r="G457" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H457" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I457">
         <f>LEFT(H457,LEN(H457)-2)/10^((MATCH(RIGHT(H457,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15826,10 +15826,10 @@
         <v>64</v>
       </c>
       <c r="G458" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H458" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I458">
         <f>LEFT(H458,LEN(H458)-2)/10^((MATCH(RIGHT(H458,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15857,10 +15857,10 @@
         <v>64</v>
       </c>
       <c r="G459" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H459" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I459">
         <f>LEFT(H459,LEN(H459)-2)/10^((MATCH(RIGHT(H459,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15888,10 +15888,10 @@
         <v>64</v>
       </c>
       <c r="G460" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H460" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I460">
         <f>LEFT(H460,LEN(H460)-2)/10^((MATCH(RIGHT(H460,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15919,10 +15919,10 @@
         <v>64</v>
       </c>
       <c r="G461" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H461" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I461">
         <f>LEFT(H461,LEN(H461)-2)/10^((MATCH(RIGHT(H461,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15950,10 +15950,10 @@
         <v>64</v>
       </c>
       <c r="G462" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H462" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I462">
         <f>LEFT(H462,LEN(H462)-2)/10^((MATCH(RIGHT(H462,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -15981,10 +15981,10 @@
         <v>64</v>
       </c>
       <c r="G463" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H463" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I463">
         <f>LEFT(H463,LEN(H463)-2)/10^((MATCH(RIGHT(H463,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16012,10 +16012,10 @@
         <v>32</v>
       </c>
       <c r="G464" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H464" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I464">
         <f>LEFT(H464,LEN(H464)-2)/10^((MATCH(RIGHT(H464,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16043,10 +16043,10 @@
         <v>32</v>
       </c>
       <c r="G465" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H465" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I465">
         <f>LEFT(H465,LEN(H465)-2)/10^((MATCH(RIGHT(H465,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16074,10 +16074,10 @@
         <v>32</v>
       </c>
       <c r="G466" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H466" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I466">
         <f>LEFT(H466,LEN(H466)-2)/10^((MATCH(RIGHT(H466,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16105,10 +16105,10 @@
         <v>32</v>
       </c>
       <c r="G467" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H467" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I467">
         <f>LEFT(H467,LEN(H467)-2)/10^((MATCH(RIGHT(H467,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16136,10 +16136,10 @@
         <v>32</v>
       </c>
       <c r="G468" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H468" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I468">
         <f>LEFT(H468,LEN(H468)-2)/10^((MATCH(RIGHT(H468,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16167,10 +16167,10 @@
         <v>16</v>
       </c>
       <c r="G469" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H469" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I469">
         <f>LEFT(H469,LEN(H469)-2)/10^((MATCH(RIGHT(H469,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16198,10 +16198,10 @@
         <v>128</v>
       </c>
       <c r="G470" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H470" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I470">
         <f>LEFT(H470,LEN(H470)-2)/10^((MATCH(RIGHT(H470,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16229,10 +16229,10 @@
         <v>16</v>
       </c>
       <c r="G471" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H471" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I471">
         <f>LEFT(H471,LEN(H471)-2)/10^((MATCH(RIGHT(H471,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16260,10 +16260,10 @@
         <v>32</v>
       </c>
       <c r="G472" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H472" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I472">
         <f>LEFT(H472,LEN(H472)-2)/10^((MATCH(RIGHT(H472,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16291,10 +16291,10 @@
         <v>4</v>
       </c>
       <c r="G473" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H473" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I473">
         <f>LEFT(H473,LEN(H473)-2)/10^((MATCH(RIGHT(H473,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16322,10 +16322,10 @@
         <v>8</v>
       </c>
       <c r="G474" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H474" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I474">
         <f>LEFT(H474,LEN(H474)-2)/10^((MATCH(RIGHT(H474,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16353,10 +16353,10 @@
         <v>32</v>
       </c>
       <c r="G475" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H475" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I475">
         <f>LEFT(H475,LEN(H475)-2)/10^((MATCH(RIGHT(H475,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16384,10 +16384,10 @@
         <v>32</v>
       </c>
       <c r="G476" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H476" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I476">
         <f>LEFT(H476,LEN(H476)-2)/10^((MATCH(RIGHT(H476,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16415,10 +16415,10 @@
         <v>16</v>
       </c>
       <c r="G477" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H477" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I477">
         <f>LEFT(H477,LEN(H477)-2)/10^((MATCH(RIGHT(H477,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16446,10 +16446,10 @@
         <v>32</v>
       </c>
       <c r="G478" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H478" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I478">
         <f>LEFT(H478,LEN(H478)-2)/10^((MATCH(RIGHT(H478,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16477,10 +16477,10 @@
         <v>128</v>
       </c>
       <c r="G479" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H479" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I479">
         <f>LEFT(H479,LEN(H479)-2)/10^((MATCH(RIGHT(H479,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16508,10 +16508,10 @@
         <v>32</v>
       </c>
       <c r="G480" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H480" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I480">
         <f>LEFT(H480,LEN(H480)-2)/10^((MATCH(RIGHT(H480,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16539,10 +16539,10 @@
         <v>8</v>
       </c>
       <c r="G481" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H481" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I481">
         <f>LEFT(H481,LEN(H481)-2)/10^((MATCH(RIGHT(H481,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16570,10 +16570,10 @@
         <v>8</v>
       </c>
       <c r="G482" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H482" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I482">
         <f>LEFT(H482,LEN(H482)-2)/10^((MATCH(RIGHT(H482,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16601,10 +16601,10 @@
         <v>8</v>
       </c>
       <c r="G483" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H483" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I483">
         <f>LEFT(H483,LEN(H483)-2)/10^((MATCH(RIGHT(H483,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16632,10 +16632,10 @@
         <v>8</v>
       </c>
       <c r="G484" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H484" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I484">
         <f>LEFT(H484,LEN(H484)-2)/10^((MATCH(RIGHT(H484,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16663,10 +16663,10 @@
         <v>8</v>
       </c>
       <c r="G485" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H485" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I485">
         <f>LEFT(H485,LEN(H485)-2)/10^((MATCH(RIGHT(H485,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16694,10 +16694,10 @@
         <v>8</v>
       </c>
       <c r="G486" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H486" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I486">
         <f>LEFT(H486,LEN(H486)-2)/10^((MATCH(RIGHT(H486,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
@@ -16725,10 +16725,10 @@
         <v>8</v>
       </c>
       <c r="G487" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H487" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I487">
         <f>LEFT(H487,LEN(H487)-2)/10^((MATCH(RIGHT(H487,2),{"PB","TB","GB","MB","KB"},0)-3)*3)</f>
